--- a/汕大/应用写作.xlsx
+++ b/汕大/应用写作.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaa\汕头大ip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Typora\汕大\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D2A559-25A4-423A-8667-D6BEE1836EC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="选择题1" sheetId="1" r:id="rId1"/>
     <sheet name="简答题1" sheetId="2" r:id="rId2"/>
     <sheet name="选择题2" sheetId="3" r:id="rId3"/>
     <sheet name="简答2" sheetId="4" r:id="rId4"/>
+    <sheet name="选择题3" sheetId="5" r:id="rId5"/>
+    <sheet name="简答3" sheetId="6" r:id="rId6"/>
+    <sheet name="选择题4" sheetId="7" r:id="rId7"/>
+    <sheet name="简答4" sheetId="8" r:id="rId8"/>
+    <sheet name="选择题5" sheetId="9" r:id="rId9"/>
+    <sheet name="简答5" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,6 +534,201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513686</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5314286" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>189362</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="0"/>
+          <a:ext cx="9104762" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189057</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>18321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="3238500"/>
+          <a:ext cx="11542857" cy="5828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104076</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4343400"/>
+          <a:ext cx="5590476" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>617676</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17830800" y="0"/>
+          <a:ext cx="11590476" cy="6152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1281,6 +1481,1361 @@
         <a:xfrm>
           <a:off x="10696575" y="4352925"/>
           <a:ext cx="10428571" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313943</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3057143" cy="3066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256629</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="0"/>
+          <a:ext cx="4371429" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561390</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>113901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="0"/>
+          <a:ext cx="4676190" cy="3190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142514</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>132949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="0"/>
+          <a:ext cx="2885714" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>275933</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="0"/>
+          <a:ext cx="2333333" cy="3390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>675762</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="4104762" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333076</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3257550"/>
+          <a:ext cx="2390476" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647448</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>113901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="3257550"/>
+          <a:ext cx="2019048" cy="3190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571171</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="3257550"/>
+          <a:ext cx="2628571" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161390</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="3257550"/>
+          <a:ext cx="4276190" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37409</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5523809" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>455857</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="0"/>
+          <a:ext cx="10742857" cy="4247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>636724</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4524375"/>
+          <a:ext cx="11609524" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>455857</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10742857" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504248</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="0"/>
+          <a:ext cx="4619048" cy="3257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170743</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>75806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="5657143" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113943</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3257550"/>
+          <a:ext cx="2857143" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>637752</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>132949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="3257550"/>
+          <a:ext cx="3380952" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>75850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="3219450"/>
+          <a:ext cx="2800000" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>542600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="3257550"/>
+          <a:ext cx="2600000" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>380609</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15773400" y="0"/>
+          <a:ext cx="3123809" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>351952</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17145000" y="3257550"/>
+          <a:ext cx="3780952" cy="3342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>665638</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>94854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="8895238" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485371</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>170954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3228571" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>189105</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>94876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="11161905" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313857</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4162425"/>
+          <a:ext cx="3742857" cy="3523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266067</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5066667" cy="3123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208839</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="0"/>
+          <a:ext cx="5685714" cy="3314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>170571</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="0"/>
+          <a:ext cx="7028571" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>132990</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17145000" y="0"/>
+          <a:ext cx="2876190" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37667</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="3466667" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>455771</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>94831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3438525"/>
+          <a:ext cx="11428571" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542514</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15087600" y="3438525"/>
+          <a:ext cx="3285714" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66324</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18516600" y="3438525"/>
+          <a:ext cx="2809524" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190133</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>56758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6877050"/>
+          <a:ext cx="2933333" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1554,7 +3109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1569,8 +3124,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECD6A6E-57D6-4B53-883E-D1CEEDB4785E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1586,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730F60D5-A511-4495-93D1-DC9C0E1E4CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1602,10 +3173,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AC9079-E4DD-42B6-85F6-1506526D91B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -1615,4 +3186,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>